--- a/spreadsheet/stats.xlsx
+++ b/spreadsheet/stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Documents\GitHub\IndieDevPPT\spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Year 3\IndieDevPPT\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB3C48D-6552-4045-9366-BB813A8C051F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DED4FD-2923-4183-A338-7873BDA51BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>Value (£)</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>x8</t>
-  </si>
-  <si>
-    <t>from here</t>
   </si>
 </sst>
 </file>
@@ -151,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -274,51 +271,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -340,6 +292,233 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -355,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -363,48 +542,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:Q35"/>
+  <dimension ref="C2:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,629 +920,625 @@
       </c>
     </row>
     <row r="3" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="21" t="s">
+    <row r="4" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="7"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="21" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="34">
         <v>145600</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="52">
         <v>145600</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="34">
         <v>202000</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="17">
         <v>202000</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C6" s="12"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="29">
         <v>43800</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="53">
         <v>43800</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="7" t="s">
+      <c r="L6" s="9"/>
+      <c r="M6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="29">
         <v>61000</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="10">
         <v>61000</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C7" s="12"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="13"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C8" s="12"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="53"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="54"/>
       <c r="J8" s="1"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="13"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="42"/>
     </row>
     <row r="9" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="24">
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="55">
         <v>189400</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="24">
+      <c r="M9" s="43"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="46">
         <v>263000</v>
       </c>
     </row>
     <row r="10" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="56"/>
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="5"/>
+      <c r="N10" s="30"/>
       <c r="O10" s="3"/>
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="31">
         <v>2500</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="52">
         <v>15000</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="31">
         <v>2500</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="12">
         <v>20000</v>
       </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="12"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="32">
         <v>2250</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="53">
         <v>13500</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="7" t="s">
+      <c r="L12" s="9"/>
+      <c r="M12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="32">
         <v>2250</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="10">
         <v>18000</v>
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="12"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="32">
         <v>3350</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="53">
         <v>40200</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="7" t="s">
+      <c r="L13" s="9"/>
+      <c r="M13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="32">
         <v>3350</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="10">
         <v>40200</v>
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="14"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="14"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="57"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="11"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="12"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="32">
         <v>3500</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="53">
         <v>35000</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="7" t="s">
+      <c r="L15" s="9"/>
+      <c r="M15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="32">
         <v>3750</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="10">
         <v>45000</v>
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="12"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="14"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="14"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C17" s="12"/>
-      <c r="D17" s="7" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="57"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C17" s="9"/>
+      <c r="D17" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="32">
         <v>140</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="53">
         <v>1680</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="7" t="s">
+      <c r="L17" s="9"/>
+      <c r="M17" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="32">
         <v>140</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="10">
         <v>1680</v>
       </c>
-      <c r="Q17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C18" s="12"/>
-      <c r="D18" s="7" t="s">
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="9"/>
+      <c r="D18" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="32">
         <v>550</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="53">
         <v>550</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="7" t="s">
+      <c r="L18" s="9"/>
+      <c r="M18" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="32">
         <v>550</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="10">
         <v>550</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C19" s="12"/>
-      <c r="D19" s="7" t="s">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" s="9"/>
+      <c r="D19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="9">
-        <v>110</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="32">
+        <v>1100</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="13">
-        <v>660</v>
-      </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="7" t="s">
+      <c r="G19" s="53">
+        <v>6600</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="9">
-        <v>110</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="N19" s="32">
+        <v>1100</v>
+      </c>
+      <c r="O19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P19" s="13">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="12"/>
-      <c r="D20" s="7" t="s">
+      <c r="P19" s="10">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20" s="9"/>
+      <c r="D20" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="32">
+        <v>40</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="53">
+        <v>480</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="32">
         <v>20</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="O20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="13">
-        <v>240</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" s="9">
-        <v>20</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P20" s="13">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C21" s="12"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="13"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="13"/>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C22" s="12"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="14"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="14"/>
-    </row>
-    <row r="23" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="20" t="s">
+      <c r="P20" s="10">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C21" s="9"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="53"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="58"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="47"/>
+    </row>
+    <row r="23" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="24">
-        <v>141830</v>
-      </c>
-      <c r="L23" s="20" t="s">
+      <c r="D23" s="43"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="55">
+        <v>113010</v>
+      </c>
+      <c r="L23" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="24">
-        <v>141830</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M23" s="43"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="46">
+        <v>139110</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="59"/>
       <c r="L24" s="2"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="N24" s="2"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="6"/>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C25" s="23" t="s">
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="18">
+      <c r="E25" s="7"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="52">
         <v>189400</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="M25" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="18">
-        <v>189400</v>
-      </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C26" s="26"/>
-      <c r="D26" s="27" t="s">
+      <c r="N25" s="7"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="12">
+        <v>263000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C26" s="15"/>
+      <c r="D26" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="29">
+      <c r="E26" s="33"/>
+      <c r="F26" s="50">
         <v>0.15</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="60">
         <v>-28410</v>
       </c>
-      <c r="L26" s="26"/>
-      <c r="M26" s="27" t="s">
+      <c r="L26" s="15"/>
+      <c r="M26" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="27"/>
-      <c r="O26" s="29">
+      <c r="N26" s="33"/>
+      <c r="O26" s="18">
         <v>0.15</v>
       </c>
-      <c r="P26" s="28">
-        <v>-28410</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C27" s="12"/>
-      <c r="D27" s="7" t="s">
+      <c r="P26" s="17">
+        <v>-49970</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C27" s="9"/>
+      <c r="D27" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="13">
-        <v>-141830</v>
-      </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="7" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="53">
+        <v>-113010</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="13">
-        <f>V26-141830</f>
-        <v>-141830</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C28" s="12"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="14"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="14"/>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C29" s="19" t="s">
+      <c r="N27" s="9"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="10">
+        <v>-139110</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C28" s="9"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="57"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C29" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="32">
-        <v>19160</v>
-      </c>
-      <c r="L29" s="19" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="61">
+        <v>47980</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M29" s="34" t="s">
+      <c r="M29" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="32">
-        <v>19160</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="12"/>
-      <c r="D30" s="30" t="s">
+      <c r="N29" s="9"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="20">
+        <v>73920</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C30" s="9"/>
+      <c r="D30" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="31">
+      <c r="E30" s="9"/>
+      <c r="F30" s="51">
         <v>0.19</v>
       </c>
-      <c r="G30" s="33">
-        <v>-3640</v>
-      </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="30" t="s">
+      <c r="G30" s="62">
+        <v>-9116</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="31">
+      <c r="N30" s="9"/>
+      <c r="O30" s="19">
         <v>0.19</v>
       </c>
-      <c r="P30" s="33">
-        <v>-3640</v>
-      </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="12"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="33"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="33"/>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="12"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="14"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="14"/>
+      <c r="P30" s="21">
+        <v>-14064</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C31" s="9"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="62"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="21"/>
+    </row>
+    <row r="32" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="58"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="47"/>
     </row>
     <row r="33" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="24">
-        <v>15520</v>
-      </c>
-      <c r="L33" s="20" t="s">
+      <c r="D33" s="49"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="55">
+        <v>38864</v>
+      </c>
+      <c r="L33" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="M33" s="25"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="24">
-        <v>15520</v>
+      <c r="M33" s="49"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="46">
+        <v>59856</v>
       </c>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.25">
@@ -1345,10 +1550,10 @@
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.25">
       <c r="L35" s="3"/>
-      <c r="M35" s="35"/>
+      <c r="M35" s="22"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="36"/>
+      <c r="P35" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
